--- a/Table/Table_xls/自由分配礼包配置表.xlsx
+++ b/Table/Table_xls/自由分配礼包配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -201,13 +201,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -223,20 +222,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -245,7 +253,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,33 +320,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,55 +344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,43 +366,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,139 +528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,15 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,11 +632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,30 +657,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,16 +677,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,115 +695,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,13 +1207,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:L5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.25" style="1"/>
     <col min="3" max="3" width="9" style="1"/>
@@ -1460,9 +1460,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+    <row r="8" spans="5:6">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>

--- a/Table/Table_xls/自由分配礼包配置表.xlsx
+++ b/Table/Table_xls/自由分配礼包配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -41,11 +40,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -56,11 +54,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -71,11 +68,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -86,11 +82,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -101,11 +96,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 0=不绑定
 1=绑定</t>
         </r>
@@ -116,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -171,18 +165,39 @@
   <si>
     <t>原石大礼包</t>
   </si>
+  <si>
+    <t>新手神兽自选礼包</t>
+  </si>
+  <si>
+    <t>340651</t>
+  </si>
+  <si>
+    <t>30级宝石自选礼包</t>
+  </si>
+  <si>
+    <t>340652</t>
+  </si>
+  <si>
+    <t>340653</t>
+  </si>
+  <si>
+    <t>30级光芒,太阳,月亮,舍利</t>
+  </si>
+  <si>
+    <t>30级翡翠,黑宝石,昆仑玉,玛瑙,神秘石</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -194,44 +209,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,21 +243,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -275,9 +252,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,7 +291,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,38 +329,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -350,8 +357,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,187 +385,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,8 +588,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,11 +638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,47 +682,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,150 +702,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -875,6 +916,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1200,269 +1246,1148 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:JB8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="2" width="9.25" style="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="12.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="9.25" style="1"/>
-    <col min="18" max="262" width="9" style="1"/>
+    <col min="1" max="1" width="9.25" style="2"/>
+    <col min="2" max="2" width="17.1" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="12.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2"/>
+    <col min="17" max="17" width="9.25" style="2"/>
+    <col min="18" max="262" width="9" style="2"/>
+    <col min="263" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>340041</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>334100</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
         <v>334101</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>340042</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>40008</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>40009</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>40010</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>40011</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>340044</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>40008</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>40009</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>40010</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>40011</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>340444</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
         <v>340443</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
         <v>340442</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+    <row r="6" s="1" customFormat="1" spans="1:262">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="2"/>
+      <c r="DF6" s="2"/>
+      <c r="DG6" s="2"/>
+      <c r="DH6" s="2"/>
+      <c r="DI6" s="2"/>
+      <c r="DJ6" s="2"/>
+      <c r="DK6" s="2"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="2"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="2"/>
+      <c r="DQ6" s="2"/>
+      <c r="DR6" s="2"/>
+      <c r="DS6" s="2"/>
+      <c r="DT6" s="2"/>
+      <c r="DU6" s="2"/>
+      <c r="DV6" s="2"/>
+      <c r="DW6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="2"/>
+      <c r="DZ6" s="2"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EI6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6" s="2"/>
+      <c r="EL6" s="2"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6" s="2"/>
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="2"/>
+      <c r="EQ6" s="2"/>
+      <c r="ER6" s="2"/>
+      <c r="ES6" s="2"/>
+      <c r="ET6" s="2"/>
+      <c r="EU6" s="2"/>
+      <c r="EV6" s="2"/>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="2"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FA6" s="2"/>
+      <c r="FB6" s="2"/>
+      <c r="FC6" s="2"/>
+      <c r="FD6" s="2"/>
+      <c r="FE6" s="2"/>
+      <c r="FF6" s="2"/>
+      <c r="FG6" s="2"/>
+      <c r="FH6" s="2"/>
+      <c r="FI6" s="2"/>
+      <c r="FJ6" s="2"/>
+      <c r="FK6" s="2"/>
+      <c r="FL6" s="2"/>
+      <c r="FM6" s="2"/>
+      <c r="FN6" s="2"/>
+      <c r="FO6" s="2"/>
+      <c r="FP6" s="2"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="2"/>
+      <c r="FS6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6" s="2"/>
+      <c r="FV6" s="2"/>
+      <c r="FW6" s="2"/>
+      <c r="FX6" s="2"/>
+      <c r="FY6" s="2"/>
+      <c r="FZ6" s="2"/>
+      <c r="GA6" s="2"/>
+      <c r="GB6" s="2"/>
+      <c r="GC6" s="2"/>
+      <c r="GD6" s="2"/>
+      <c r="GE6" s="2"/>
+      <c r="GF6" s="2"/>
+      <c r="GG6" s="2"/>
+      <c r="GH6" s="2"/>
+      <c r="GI6" s="2"/>
+      <c r="GJ6" s="2"/>
+      <c r="GK6" s="2"/>
+      <c r="GL6" s="2"/>
+      <c r="GM6" s="2"/>
+      <c r="GN6" s="2"/>
+      <c r="GO6" s="2"/>
+      <c r="GP6" s="2"/>
+      <c r="GQ6" s="2"/>
+      <c r="GR6" s="2"/>
+      <c r="GS6" s="2"/>
+      <c r="GT6" s="2"/>
+      <c r="GU6" s="2"/>
+      <c r="GV6" s="2"/>
+      <c r="GW6" s="2"/>
+      <c r="GX6" s="2"/>
+      <c r="GY6" s="2"/>
+      <c r="GZ6" s="2"/>
+      <c r="HA6" s="2"/>
+      <c r="HB6" s="2"/>
+      <c r="HC6" s="2"/>
+      <c r="HD6" s="2"/>
+      <c r="HE6" s="2"/>
+      <c r="HF6" s="2"/>
+      <c r="HG6" s="2"/>
+      <c r="HH6" s="2"/>
+      <c r="HI6" s="2"/>
+      <c r="HJ6" s="2"/>
+      <c r="HK6" s="2"/>
+      <c r="HL6" s="2"/>
+      <c r="HM6" s="2"/>
+      <c r="HN6" s="2"/>
+      <c r="HO6" s="2"/>
+      <c r="HP6" s="2"/>
+      <c r="HQ6" s="2"/>
+      <c r="HR6" s="2"/>
+      <c r="HS6" s="2"/>
+      <c r="HT6" s="2"/>
+      <c r="HU6" s="2"/>
+      <c r="HV6" s="2"/>
+      <c r="HW6" s="2"/>
+      <c r="HX6" s="2"/>
+      <c r="HY6" s="2"/>
+      <c r="HZ6" s="2"/>
+      <c r="IA6" s="2"/>
+      <c r="IB6" s="2"/>
+      <c r="IC6" s="2"/>
+      <c r="ID6" s="2"/>
+      <c r="IE6" s="2"/>
+      <c r="IF6" s="2"/>
+      <c r="IG6" s="2"/>
+      <c r="IH6" s="2"/>
+      <c r="II6" s="2"/>
+      <c r="IJ6" s="2"/>
+      <c r="IK6" s="2"/>
+      <c r="IL6" s="2"/>
+      <c r="IM6" s="2"/>
+      <c r="IN6" s="2"/>
+      <c r="IO6" s="2"/>
+      <c r="IP6" s="2"/>
+      <c r="IQ6" s="2"/>
+      <c r="IR6" s="2"/>
+      <c r="IS6" s="2"/>
+      <c r="IT6" s="2"/>
+      <c r="IU6" s="2"/>
+      <c r="IV6" s="2"/>
+      <c r="IW6" s="2"/>
+      <c r="IX6" s="2"/>
+      <c r="IY6" s="2"/>
+      <c r="IZ6" s="2"/>
+      <c r="JA6" s="2"/>
+      <c r="JB6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:262">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8">
+        <v>35262</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>35263</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>35264</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>35265</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="2"/>
+      <c r="DF7" s="2"/>
+      <c r="DG7" s="2"/>
+      <c r="DH7" s="2"/>
+      <c r="DI7" s="2"/>
+      <c r="DJ7" s="2"/>
+      <c r="DK7" s="2"/>
+      <c r="DL7" s="2"/>
+      <c r="DM7" s="2"/>
+      <c r="DN7" s="2"/>
+      <c r="DO7" s="2"/>
+      <c r="DP7" s="2"/>
+      <c r="DQ7" s="2"/>
+      <c r="DR7" s="2"/>
+      <c r="DS7" s="2"/>
+      <c r="DT7" s="2"/>
+      <c r="DU7" s="2"/>
+      <c r="DV7" s="2"/>
+      <c r="DW7" s="2"/>
+      <c r="DX7" s="2"/>
+      <c r="DY7" s="2"/>
+      <c r="DZ7" s="2"/>
+      <c r="EA7" s="2"/>
+      <c r="EB7" s="2"/>
+      <c r="EC7" s="2"/>
+      <c r="ED7" s="2"/>
+      <c r="EE7" s="2"/>
+      <c r="EF7" s="2"/>
+      <c r="EG7" s="2"/>
+      <c r="EH7" s="2"/>
+      <c r="EI7" s="2"/>
+      <c r="EJ7" s="2"/>
+      <c r="EK7" s="2"/>
+      <c r="EL7" s="2"/>
+      <c r="EM7" s="2"/>
+      <c r="EN7" s="2"/>
+      <c r="EO7" s="2"/>
+      <c r="EP7" s="2"/>
+      <c r="EQ7" s="2"/>
+      <c r="ER7" s="2"/>
+      <c r="ES7" s="2"/>
+      <c r="ET7" s="2"/>
+      <c r="EU7" s="2"/>
+      <c r="EV7" s="2"/>
+      <c r="EW7" s="2"/>
+      <c r="EX7" s="2"/>
+      <c r="EY7" s="2"/>
+      <c r="EZ7" s="2"/>
+      <c r="FA7" s="2"/>
+      <c r="FB7" s="2"/>
+      <c r="FC7" s="2"/>
+      <c r="FD7" s="2"/>
+      <c r="FE7" s="2"/>
+      <c r="FF7" s="2"/>
+      <c r="FG7" s="2"/>
+      <c r="FH7" s="2"/>
+      <c r="FI7" s="2"/>
+      <c r="FJ7" s="2"/>
+      <c r="FK7" s="2"/>
+      <c r="FL7" s="2"/>
+      <c r="FM7" s="2"/>
+      <c r="FN7" s="2"/>
+      <c r="FO7" s="2"/>
+      <c r="FP7" s="2"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7" s="2"/>
+      <c r="FS7" s="2"/>
+      <c r="FT7" s="2"/>
+      <c r="FU7" s="2"/>
+      <c r="FV7" s="2"/>
+      <c r="FW7" s="2"/>
+      <c r="FX7" s="2"/>
+      <c r="FY7" s="2"/>
+      <c r="FZ7" s="2"/>
+      <c r="GA7" s="2"/>
+      <c r="GB7" s="2"/>
+      <c r="GC7" s="2"/>
+      <c r="GD7" s="2"/>
+      <c r="GE7" s="2"/>
+      <c r="GF7" s="2"/>
+      <c r="GG7" s="2"/>
+      <c r="GH7" s="2"/>
+      <c r="GI7" s="2"/>
+      <c r="GJ7" s="2"/>
+      <c r="GK7" s="2"/>
+      <c r="GL7" s="2"/>
+      <c r="GM7" s="2"/>
+      <c r="GN7" s="2"/>
+      <c r="GO7" s="2"/>
+      <c r="GP7" s="2"/>
+      <c r="GQ7" s="2"/>
+      <c r="GR7" s="2"/>
+      <c r="GS7" s="2"/>
+      <c r="GT7" s="2"/>
+      <c r="GU7" s="2"/>
+      <c r="GV7" s="2"/>
+      <c r="GW7" s="2"/>
+      <c r="GX7" s="2"/>
+      <c r="GY7" s="2"/>
+      <c r="GZ7" s="2"/>
+      <c r="HA7" s="2"/>
+      <c r="HB7" s="2"/>
+      <c r="HC7" s="2"/>
+      <c r="HD7" s="2"/>
+      <c r="HE7" s="2"/>
+      <c r="HF7" s="2"/>
+      <c r="HG7" s="2"/>
+      <c r="HH7" s="2"/>
+      <c r="HI7" s="2"/>
+      <c r="HJ7" s="2"/>
+      <c r="HK7" s="2"/>
+      <c r="HL7" s="2"/>
+      <c r="HM7" s="2"/>
+      <c r="HN7" s="2"/>
+      <c r="HO7" s="2"/>
+      <c r="HP7" s="2"/>
+      <c r="HQ7" s="2"/>
+      <c r="HR7" s="2"/>
+      <c r="HS7" s="2"/>
+      <c r="HT7" s="2"/>
+      <c r="HU7" s="2"/>
+      <c r="HV7" s="2"/>
+      <c r="HW7" s="2"/>
+      <c r="HX7" s="2"/>
+      <c r="HY7" s="2"/>
+      <c r="HZ7" s="2"/>
+      <c r="IA7" s="2"/>
+      <c r="IB7" s="2"/>
+      <c r="IC7" s="2"/>
+      <c r="ID7" s="2"/>
+      <c r="IE7" s="2"/>
+      <c r="IF7" s="2"/>
+      <c r="IG7" s="2"/>
+      <c r="IH7" s="2"/>
+      <c r="II7" s="2"/>
+      <c r="IJ7" s="2"/>
+      <c r="IK7" s="2"/>
+      <c r="IL7" s="2"/>
+      <c r="IM7" s="2"/>
+      <c r="IN7" s="2"/>
+      <c r="IO7" s="2"/>
+      <c r="IP7" s="2"/>
+      <c r="IQ7" s="2"/>
+      <c r="IR7" s="2"/>
+      <c r="IS7" s="2"/>
+      <c r="IT7" s="2"/>
+      <c r="IU7" s="2"/>
+      <c r="IV7" s="2"/>
+      <c r="IW7" s="2"/>
+      <c r="IX7" s="2"/>
+      <c r="IY7" s="2"/>
+      <c r="IZ7" s="2"/>
+      <c r="JA7" s="2"/>
+      <c r="JB7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:262">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>35266</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>35267</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>35268</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>35269</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>35270</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="2"/>
+      <c r="CS8" s="2"/>
+      <c r="CT8" s="2"/>
+      <c r="CU8" s="2"/>
+      <c r="CV8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="2"/>
+      <c r="DF8" s="2"/>
+      <c r="DG8" s="2"/>
+      <c r="DH8" s="2"/>
+      <c r="DI8" s="2"/>
+      <c r="DJ8" s="2"/>
+      <c r="DK8" s="2"/>
+      <c r="DL8" s="2"/>
+      <c r="DM8" s="2"/>
+      <c r="DN8" s="2"/>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="2"/>
+      <c r="DQ8" s="2"/>
+      <c r="DR8" s="2"/>
+      <c r="DS8" s="2"/>
+      <c r="DT8" s="2"/>
+      <c r="DU8" s="2"/>
+      <c r="DV8" s="2"/>
+      <c r="DW8" s="2"/>
+      <c r="DX8" s="2"/>
+      <c r="DY8" s="2"/>
+      <c r="DZ8" s="2"/>
+      <c r="EA8" s="2"/>
+      <c r="EB8" s="2"/>
+      <c r="EC8" s="2"/>
+      <c r="ED8" s="2"/>
+      <c r="EE8" s="2"/>
+      <c r="EF8" s="2"/>
+      <c r="EG8" s="2"/>
+      <c r="EH8" s="2"/>
+      <c r="EI8" s="2"/>
+      <c r="EJ8" s="2"/>
+      <c r="EK8" s="2"/>
+      <c r="EL8" s="2"/>
+      <c r="EM8" s="2"/>
+      <c r="EN8" s="2"/>
+      <c r="EO8" s="2"/>
+      <c r="EP8" s="2"/>
+      <c r="EQ8" s="2"/>
+      <c r="ER8" s="2"/>
+      <c r="ES8" s="2"/>
+      <c r="ET8" s="2"/>
+      <c r="EU8" s="2"/>
+      <c r="EV8" s="2"/>
+      <c r="EW8" s="2"/>
+      <c r="EX8" s="2"/>
+      <c r="EY8" s="2"/>
+      <c r="EZ8" s="2"/>
+      <c r="FA8" s="2"/>
+      <c r="FB8" s="2"/>
+      <c r="FC8" s="2"/>
+      <c r="FD8" s="2"/>
+      <c r="FE8" s="2"/>
+      <c r="FF8" s="2"/>
+      <c r="FG8" s="2"/>
+      <c r="FH8" s="2"/>
+      <c r="FI8" s="2"/>
+      <c r="FJ8" s="2"/>
+      <c r="FK8" s="2"/>
+      <c r="FL8" s="2"/>
+      <c r="FM8" s="2"/>
+      <c r="FN8" s="2"/>
+      <c r="FO8" s="2"/>
+      <c r="FP8" s="2"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="2"/>
+      <c r="FS8" s="2"/>
+      <c r="FT8" s="2"/>
+      <c r="FU8" s="2"/>
+      <c r="FV8" s="2"/>
+      <c r="FW8" s="2"/>
+      <c r="FX8" s="2"/>
+      <c r="FY8" s="2"/>
+      <c r="FZ8" s="2"/>
+      <c r="GA8" s="2"/>
+      <c r="GB8" s="2"/>
+      <c r="GC8" s="2"/>
+      <c r="GD8" s="2"/>
+      <c r="GE8" s="2"/>
+      <c r="GF8" s="2"/>
+      <c r="GG8" s="2"/>
+      <c r="GH8" s="2"/>
+      <c r="GI8" s="2"/>
+      <c r="GJ8" s="2"/>
+      <c r="GK8" s="2"/>
+      <c r="GL8" s="2"/>
+      <c r="GM8" s="2"/>
+      <c r="GN8" s="2"/>
+      <c r="GO8" s="2"/>
+      <c r="GP8" s="2"/>
+      <c r="GQ8" s="2"/>
+      <c r="GR8" s="2"/>
+      <c r="GS8" s="2"/>
+      <c r="GT8" s="2"/>
+      <c r="GU8" s="2"/>
+      <c r="GV8" s="2"/>
+      <c r="GW8" s="2"/>
+      <c r="GX8" s="2"/>
+      <c r="GY8" s="2"/>
+      <c r="GZ8" s="2"/>
+      <c r="HA8" s="2"/>
+      <c r="HB8" s="2"/>
+      <c r="HC8" s="2"/>
+      <c r="HD8" s="2"/>
+      <c r="HE8" s="2"/>
+      <c r="HF8" s="2"/>
+      <c r="HG8" s="2"/>
+      <c r="HH8" s="2"/>
+      <c r="HI8" s="2"/>
+      <c r="HJ8" s="2"/>
+      <c r="HK8" s="2"/>
+      <c r="HL8" s="2"/>
+      <c r="HM8" s="2"/>
+      <c r="HN8" s="2"/>
+      <c r="HO8" s="2"/>
+      <c r="HP8" s="2"/>
+      <c r="HQ8" s="2"/>
+      <c r="HR8" s="2"/>
+      <c r="HS8" s="2"/>
+      <c r="HT8" s="2"/>
+      <c r="HU8" s="2"/>
+      <c r="HV8" s="2"/>
+      <c r="HW8" s="2"/>
+      <c r="HX8" s="2"/>
+      <c r="HY8" s="2"/>
+      <c r="HZ8" s="2"/>
+      <c r="IA8" s="2"/>
+      <c r="IB8" s="2"/>
+      <c r="IC8" s="2"/>
+      <c r="ID8" s="2"/>
+      <c r="IE8" s="2"/>
+      <c r="IF8" s="2"/>
+      <c r="IG8" s="2"/>
+      <c r="IH8" s="2"/>
+      <c r="II8" s="2"/>
+      <c r="IJ8" s="2"/>
+      <c r="IK8" s="2"/>
+      <c r="IL8" s="2"/>
+      <c r="IM8" s="2"/>
+      <c r="IN8" s="2"/>
+      <c r="IO8" s="2"/>
+      <c r="IP8" s="2"/>
+      <c r="IQ8" s="2"/>
+      <c r="IR8" s="2"/>
+      <c r="IS8" s="2"/>
+      <c r="IT8" s="2"/>
+      <c r="IU8" s="2"/>
+      <c r="IV8" s="2"/>
+      <c r="IW8" s="2"/>
+      <c r="IX8" s="2"/>
+      <c r="IY8" s="2"/>
+      <c r="IZ8" s="2"/>
+      <c r="JA8" s="2"/>
+      <c r="JB8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
@@ -1473,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1481,7 +2406,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1490,7 +2415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1498,7 +2423,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
